--- a/D11Artifact/UnDeuxTrois.xlsx
+++ b/D11Artifact/UnDeuxTrois.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="1082">
   <si>
     <t xml:space="preserve">S.No</t>
   </si>
@@ -1904,6 +1904,1368 @@
   </si>
   <si>
     <t>25-MAY-2018 10:43</t>
+  </si>
+  <si>
+    <t>285678625</t>
+  </si>
+  <si>
+    <t>25-MAY-2018 22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB00144571 </t>
+  </si>
+  <si>
+    <t>BuyIn</t>
+  </si>
+  <si>
+    <t>25-MAY-2018 23:17</t>
+  </si>
+  <si>
+    <t>285688495</t>
+  </si>
+  <si>
+    <t>Rejoin</t>
+  </si>
+  <si>
+    <t>25-MAY-2018 23:22</t>
+  </si>
+  <si>
+    <t>25-MAY-2018 23:38</t>
+  </si>
+  <si>
+    <t>285702763</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 00:13</t>
+  </si>
+  <si>
+    <t>285714625</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 00:40</t>
+  </si>
+  <si>
+    <t>285716270</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 00:49</t>
+  </si>
+  <si>
+    <t>285717792</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 00:52</t>
+  </si>
+  <si>
+    <t>285718491</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 01:00</t>
+  </si>
+  <si>
+    <t>285719713</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 01:08</t>
+  </si>
+  <si>
+    <t>285721012</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 01:13</t>
+  </si>
+  <si>
+    <t>285721643</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 01:35</t>
+  </si>
+  <si>
+    <t>285724739</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 01:40</t>
+  </si>
+  <si>
+    <t>285724955</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 01:52</t>
+  </si>
+  <si>
+    <t>285726858</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 02:20</t>
+  </si>
+  <si>
+    <t>Bonus Added For</t>
+  </si>
+  <si>
+    <t>Rummy</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>285729744</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 02:29</t>
+  </si>
+  <si>
+    <t>285730650</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 02:34</t>
+  </si>
+  <si>
+    <t>285731103</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 03:08</t>
+  </si>
+  <si>
+    <t>Redeem</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 03:09</t>
+  </si>
+  <si>
+    <t>285778330</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 10:59</t>
+  </si>
+  <si>
+    <t>285783864</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 11:27</t>
+  </si>
+  <si>
+    <t>285785469</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 11:36</t>
+  </si>
+  <si>
+    <t>285788030</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 11:44</t>
+  </si>
+  <si>
+    <t>285790050</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 11:53</t>
+  </si>
+  <si>
+    <t>285791958</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 12:01</t>
+  </si>
+  <si>
+    <t>285793688</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 12:10</t>
+  </si>
+  <si>
+    <t>285795811</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 12:17</t>
+  </si>
+  <si>
+    <t>285797356</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 12:26</t>
+  </si>
+  <si>
+    <t>285799536</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 12:34</t>
+  </si>
+  <si>
+    <t>285857970</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 16:37</t>
+  </si>
+  <si>
+    <t>285859588</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 16:44</t>
+  </si>
+  <si>
+    <t>285861215</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 16:50</t>
+  </si>
+  <si>
+    <t>285862596</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 16:58</t>
+  </si>
+  <si>
+    <t>285864339</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:05</t>
+  </si>
+  <si>
+    <t>285866001</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:13</t>
+  </si>
+  <si>
+    <t>285867980</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:22</t>
+  </si>
+  <si>
+    <t>285869946</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:27</t>
+  </si>
+  <si>
+    <t>285871038</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:36</t>
+  </si>
+  <si>
+    <t>285872957</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:47</t>
+  </si>
+  <si>
+    <t>285875295</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 17:55</t>
+  </si>
+  <si>
+    <t>285877119</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 18:05</t>
+  </si>
+  <si>
+    <t>285879075</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 18:13</t>
+  </si>
+  <si>
+    <t>285880927</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 18:29</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 18:50</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 18:53</t>
+  </si>
+  <si>
+    <t>285889346</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 19:23</t>
+  </si>
+  <si>
+    <t>285900661</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 20:02</t>
+  </si>
+  <si>
+    <t>285904246</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 20:30</t>
+  </si>
+  <si>
+    <t>285911017</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 21:01</t>
+  </si>
+  <si>
+    <t>285917908</t>
+  </si>
+  <si>
+    <t>26-MAY-2018 21:43</t>
+  </si>
+  <si>
+    <t>286196499</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 22:59</t>
+  </si>
+  <si>
+    <t>286199786</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 23:07</t>
+  </si>
+  <si>
+    <t>286201784</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 23:13</t>
+  </si>
+  <si>
+    <t>286203243</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 23:16</t>
+  </si>
+  <si>
+    <t>286204072</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 23:24</t>
+  </si>
+  <si>
+    <t>286206074</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 23:52</t>
+  </si>
+  <si>
+    <t>286212959</t>
+  </si>
+  <si>
+    <t>27-MAY-2018 23:58</t>
+  </si>
+  <si>
+    <t>286214391</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:05</t>
+  </si>
+  <si>
+    <t>286216049</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:13</t>
+  </si>
+  <si>
+    <t>286217734</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:19</t>
+  </si>
+  <si>
+    <t>286219089</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:27</t>
+  </si>
+  <si>
+    <t>286220557</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:40</t>
+  </si>
+  <si>
+    <t>286223104</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:48</t>
+  </si>
+  <si>
+    <t>286224408</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:54</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 00:55</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 10:26</t>
+  </si>
+  <si>
+    <t>286306443</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 13:24</t>
+  </si>
+  <si>
+    <t>286312531</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 13:48</t>
+  </si>
+  <si>
+    <t>286377233</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:19</t>
+  </si>
+  <si>
+    <t>286378078</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:25</t>
+  </si>
+  <si>
+    <t>286379510</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:31</t>
+  </si>
+  <si>
+    <t>286381280</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:37</t>
+  </si>
+  <si>
+    <t>286381859</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:45</t>
+  </si>
+  <si>
+    <t>286383603</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:50</t>
+  </si>
+  <si>
+    <t>286384632</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 18:56</t>
+  </si>
+  <si>
+    <t>286388674</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 19:18</t>
+  </si>
+  <si>
+    <t>286391424</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 19:30</t>
+  </si>
+  <si>
+    <t>286393346</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 19:38</t>
+  </si>
+  <si>
+    <t>286395248</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 19:45</t>
+  </si>
+  <si>
+    <t>286396886</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 19:46</t>
+  </si>
+  <si>
+    <t>286397133</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 20:28</t>
+  </si>
+  <si>
+    <t>286425775</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 22:23</t>
+  </si>
+  <si>
+    <t>286449842</t>
+  </si>
+  <si>
+    <t>28-MAY-2018 23:47</t>
+  </si>
+  <si>
+    <t>286463784</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 00:11</t>
+  </si>
+  <si>
+    <t>286470245</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 00:20</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 07:50</t>
+  </si>
+  <si>
+    <t>286510612</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 08:12</t>
+  </si>
+  <si>
+    <t>286513541</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 08:43</t>
+  </si>
+  <si>
+    <t>286517399</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 09:11</t>
+  </si>
+  <si>
+    <t>286521446</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 09:31</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 10:34</t>
+  </si>
+  <si>
+    <t>286644216</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 19:07</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 19:15</t>
+  </si>
+  <si>
+    <t>286650337</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 19:56</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>286659350</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 20:05</t>
+  </si>
+  <si>
+    <t>29-MAY-2018 20:06</t>
+  </si>
+  <si>
+    <t>286902596</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 19:17</t>
+  </si>
+  <si>
+    <t>286909805</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 19:53</t>
+  </si>
+  <si>
+    <t>286917657</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 20:35</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>286927309</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 21:05</t>
+  </si>
+  <si>
+    <t>286934209</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 21:48</t>
+  </si>
+  <si>
+    <t>286945334</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 21:55</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 22:02</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 22:09</t>
+  </si>
+  <si>
+    <t>30-MAY-2018 22:10</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 19:42</t>
+  </si>
+  <si>
+    <t>287433773</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 20:03</t>
+  </si>
+  <si>
+    <t>287438532</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 20:54</t>
+  </si>
+  <si>
+    <t>287451873</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 21:36</t>
+  </si>
+  <si>
+    <t>287462194</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 22:05</t>
+  </si>
+  <si>
+    <t>287470641</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 22:30</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 22:46</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 22:47</t>
+  </si>
+  <si>
+    <t>287484450</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 23:00</t>
+  </si>
+  <si>
+    <t>01-JUN-2018 23:23</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 11:36</t>
+  </si>
+  <si>
+    <t>287610668</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 13:17</t>
+  </si>
+  <si>
+    <t>287618968</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 13:55</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 14:06</t>
+  </si>
+  <si>
+    <t>287630639</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 14:45</t>
+  </si>
+  <si>
+    <t>287641130</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 15:22</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 15:37</t>
+  </si>
+  <si>
+    <t>287653438</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 16:07</t>
+  </si>
+  <si>
+    <t>287661517</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 16:32</t>
+  </si>
+  <si>
+    <t>287667575</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 17:13</t>
+  </si>
+  <si>
+    <t>Promo Bonus Claim</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 17:14</t>
+  </si>
+  <si>
+    <t>287677590</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 17:34</t>
+  </si>
+  <si>
+    <t>02-JUN-2018 17:44</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 14:42</t>
+  </si>
+  <si>
+    <t>287929720</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 15:18</t>
+  </si>
+  <si>
+    <t>287936838</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 15:52</t>
+  </si>
+  <si>
+    <t>287945142</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 16:18</t>
+  </si>
+  <si>
+    <t>287952135</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 16:49</t>
+  </si>
+  <si>
+    <t>287959776</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 17:15</t>
+  </si>
+  <si>
+    <t>288026576</t>
+  </si>
+  <si>
+    <t>03-JUN-2018 22:04</t>
+  </si>
+  <si>
+    <t>288267797</t>
+  </si>
+  <si>
+    <t>04-JUN-2018 20:57</t>
+  </si>
+  <si>
+    <t>288277954</t>
+  </si>
+  <si>
+    <t>04-JUN-2018 21:33</t>
+  </si>
+  <si>
+    <t>288287475</t>
+  </si>
+  <si>
+    <t>04-JUN-2018 22:10</t>
+  </si>
+  <si>
+    <t>Points Rummy Lost</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 16:31</t>
+  </si>
+  <si>
+    <t>290161450</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 17:07</t>
+  </si>
+  <si>
+    <t>290169609</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 17:23</t>
+  </si>
+  <si>
+    <t>290172304</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 17:50</t>
+  </si>
+  <si>
+    <t>290179853</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 18:20</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 18:24</t>
+  </si>
+  <si>
+    <t>290188511</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 18:56</t>
+  </si>
+  <si>
+    <t>11-JUN-2018 19:12</t>
+  </si>
+  <si>
+    <t>290335977</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 08:47</t>
+  </si>
+  <si>
+    <t>290467274</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 18:29</t>
+  </si>
+  <si>
+    <t>290474792</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 18:59</t>
+  </si>
+  <si>
+    <t>290481274</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 19:11</t>
+  </si>
+  <si>
+    <t>290484048</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 19:29</t>
+  </si>
+  <si>
+    <t>290490225</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 19:58</t>
+  </si>
+  <si>
+    <t>290495944</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 20:50</t>
+  </si>
+  <si>
+    <t>290523742</t>
+  </si>
+  <si>
+    <t>12-JUN-2018 22:22</t>
+  </si>
+  <si>
+    <t>291084410</t>
+  </si>
+  <si>
+    <t>14-JUN-2018 22:28</t>
+  </si>
+  <si>
+    <t>291099381</t>
+  </si>
+  <si>
+    <t>14-JUN-2018 22:54</t>
+  </si>
+  <si>
+    <t>291325368</t>
+  </si>
+  <si>
+    <t>15-JUN-2018 19:44</t>
+  </si>
+  <si>
+    <t>291332284</t>
+  </si>
+  <si>
+    <t>15-JUN-2018 20:14</t>
+  </si>
+  <si>
+    <t>291339768</t>
+  </si>
+  <si>
+    <t>15-JUN-2018 20:45</t>
+  </si>
+  <si>
+    <t>291347830</t>
+  </si>
+  <si>
+    <t>15-JUN-2018 21:24</t>
+  </si>
+  <si>
+    <t>291358188</t>
+  </si>
+  <si>
+    <t>15-JUN-2018 22:00</t>
+  </si>
+  <si>
+    <t>291486975</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 11:15</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 11:18</t>
+  </si>
+  <si>
+    <t>291493289</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 11:44</t>
+  </si>
+  <si>
+    <t>291499270</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 12:12</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 12:14</t>
+  </si>
+  <si>
+    <t>291507593</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 12:38</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 12:50</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 13:00</t>
+  </si>
+  <si>
+    <t>291518837</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 13:35</t>
+  </si>
+  <si>
+    <t>291527545</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 14:16</t>
+  </si>
+  <si>
+    <t>291560269</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 16:12</t>
+  </si>
+  <si>
+    <t>291569305</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 16:37</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 16:40</t>
+  </si>
+  <si>
+    <t>291576862</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 17:14</t>
+  </si>
+  <si>
+    <t>291585653</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 17:55</t>
+  </si>
+  <si>
+    <t>291647135</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 22:10</t>
+  </si>
+  <si>
+    <t>291659309</t>
+  </si>
+  <si>
+    <t>16-JUN-2018 22:29</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 10:41</t>
+  </si>
+  <si>
+    <t>291772807</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 11:12</t>
+  </si>
+  <si>
+    <t>291778051</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 11:43</t>
+  </si>
+  <si>
+    <t>291785956</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 12:06</t>
+  </si>
+  <si>
+    <t>291791983</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 12:43</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 15:17</t>
+  </si>
+  <si>
+    <t>291839710</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 15:43</t>
+  </si>
+  <si>
+    <t>291845897</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 16:34</t>
+  </si>
+  <si>
+    <t>291859655</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:12</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:14</t>
+  </si>
+  <si>
+    <t>291870367</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:25</t>
+  </si>
+  <si>
+    <t>291871881</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:30</t>
+  </si>
+  <si>
+    <t>291873035</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:38</t>
+  </si>
+  <si>
+    <t>291874882</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:45</t>
+  </si>
+  <si>
+    <t>291876623</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:51</t>
+  </si>
+  <si>
+    <t>291877889</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 17:57</t>
+  </si>
+  <si>
+    <t>291879101</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 18:04</t>
+  </si>
+  <si>
+    <t>291880683</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 18:10</t>
+  </si>
+  <si>
+    <t>291881991</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 18:17</t>
+  </si>
+  <si>
+    <t>291883388</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 18:37</t>
+  </si>
+  <si>
+    <t>291887899</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 19:18</t>
+  </si>
+  <si>
+    <t>291896736</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 19:46</t>
+  </si>
+  <si>
+    <t>291903423</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 19:56</t>
+  </si>
+  <si>
+    <t>291905841</t>
+  </si>
+  <si>
+    <t>17-JUN-2018 19:57</t>
+  </si>
+  <si>
+    <t>18-JUN-2018 19:19</t>
+  </si>
+  <si>
+    <t>292144698</t>
+  </si>
+  <si>
+    <t>18-JUN-2018 19:57</t>
+  </si>
+  <si>
+    <t>292431516</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 20:58</t>
+  </si>
+  <si>
+    <t>292453082</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 22:27</t>
+  </si>
+  <si>
+    <t>292461912</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 23:01</t>
+  </si>
+  <si>
+    <t>292473284</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 23:08</t>
+  </si>
+  <si>
+    <t>292475665</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 23:16</t>
+  </si>
+  <si>
+    <t>292478051</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 23:23</t>
+  </si>
+  <si>
+    <t>292480248</t>
+  </si>
+  <si>
+    <t>19-JUN-2018 23:56</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 19:24</t>
+  </si>
+  <si>
+    <t>292683493</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 20:07</t>
+  </si>
+  <si>
+    <t>292694007</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 20:35</t>
+  </si>
+  <si>
+    <t>292700816</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 21:05</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 21:10</t>
+  </si>
+  <si>
+    <t>292709487</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 21:44</t>
+  </si>
+  <si>
+    <t>292721296</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 22:21</t>
+  </si>
+  <si>
+    <t>292730795</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 22:40</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 22:41</t>
+  </si>
+  <si>
+    <t>292737602</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 23:03</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 23:25</t>
+  </si>
+  <si>
+    <t>292744881</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 23:28</t>
+  </si>
+  <si>
+    <t>292753291</t>
+  </si>
+  <si>
+    <t>20-JUN-2018 23:56</t>
+  </si>
+  <si>
+    <t>292761267</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 00:23</t>
+  </si>
+  <si>
+    <t>292772059</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 00:49</t>
+  </si>
+  <si>
+    <t>292774615</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 01:06</t>
+  </si>
+  <si>
+    <t>292777615</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 01:24</t>
+  </si>
+  <si>
+    <t>292768242</t>
+  </si>
+  <si>
+    <t>292779038</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 01:29</t>
+  </si>
+  <si>
+    <t>292779981</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 01:35</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 01:36</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 01:41</t>
+  </si>
+  <si>
+    <t>292780589</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 02:00</t>
+  </si>
+  <si>
+    <t>292784657</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 02:21</t>
+  </si>
+  <si>
+    <t>292785069</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 02:24</t>
+  </si>
+  <si>
+    <t>292785919</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 02:31</t>
+  </si>
+  <si>
+    <t>292782783</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 02:35</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 02:36</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 09:27</t>
+  </si>
+  <si>
+    <t>292820886</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 09:55</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 09:57</t>
+  </si>
+  <si>
+    <t>292825390</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 10:17</t>
+  </si>
+  <si>
+    <t>21-JUN-2018 10:23</t>
   </si>
 </sst>
 </file>
@@ -9509,6 +10871,5733 @@
         <v>627</v>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>32</v>
+      </c>
+      <c r="C336" t="s">
+        <v>628</v>
+      </c>
+      <c r="D336" t="s">
+        <v>619</v>
+      </c>
+      <c r="E336" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>177.69</v>
+      </c>
+      <c r="G336" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>630</v>
+      </c>
+      <c r="C337" t="s">
+        <v>631</v>
+      </c>
+      <c r="D337" t="s">
+        <v>631</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>177.69</v>
+      </c>
+      <c r="G337" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>32</v>
+      </c>
+      <c r="C338" t="s">
+        <v>633</v>
+      </c>
+      <c r="D338" t="s">
+        <v>634</v>
+      </c>
+      <c r="E338" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G338" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>32</v>
+      </c>
+      <c r="C339" t="s">
+        <v>633</v>
+      </c>
+      <c r="D339" t="s">
+        <v>619</v>
+      </c>
+      <c r="E339" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>127.69</v>
+      </c>
+      <c r="G339" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>32</v>
+      </c>
+      <c r="C340" t="s">
+        <v>637</v>
+      </c>
+      <c r="D340" t="s">
+        <v>616</v>
+      </c>
+      <c r="E340" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>165.69</v>
+      </c>
+      <c r="G340" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>48</v>
+      </c>
+      <c r="C341" t="s">
+        <v>639</v>
+      </c>
+      <c r="D341" t="s">
+        <v>619</v>
+      </c>
+      <c r="E341" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>155.69</v>
+      </c>
+      <c r="G341" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>48</v>
+      </c>
+      <c r="C342" t="s">
+        <v>641</v>
+      </c>
+      <c r="D342" t="s">
+        <v>619</v>
+      </c>
+      <c r="E342" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>145.69</v>
+      </c>
+      <c r="G342" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>48</v>
+      </c>
+      <c r="C343" t="s">
+        <v>643</v>
+      </c>
+      <c r="D343" t="s">
+        <v>619</v>
+      </c>
+      <c r="E343" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>135.69</v>
+      </c>
+      <c r="G343" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>48</v>
+      </c>
+      <c r="C344" t="s">
+        <v>645</v>
+      </c>
+      <c r="D344" t="s">
+        <v>616</v>
+      </c>
+      <c r="E344" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>142.69</v>
+      </c>
+      <c r="G344" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>48</v>
+      </c>
+      <c r="C345" t="s">
+        <v>647</v>
+      </c>
+      <c r="D345" t="s">
+        <v>619</v>
+      </c>
+      <c r="E345" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>132.69</v>
+      </c>
+      <c r="G345" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>48</v>
+      </c>
+      <c r="C346" t="s">
+        <v>649</v>
+      </c>
+      <c r="D346" t="s">
+        <v>619</v>
+      </c>
+      <c r="E346" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>122.69</v>
+      </c>
+      <c r="G346" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>35</v>
+      </c>
+      <c r="C347" t="s">
+        <v>651</v>
+      </c>
+      <c r="D347" t="s">
+        <v>619</v>
+      </c>
+      <c r="E347" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="G347" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>48</v>
+      </c>
+      <c r="C348" t="s">
+        <v>653</v>
+      </c>
+      <c r="D348" t="s">
+        <v>619</v>
+      </c>
+      <c r="E348" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F348" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="G348" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>35</v>
+      </c>
+      <c r="C349" t="s">
+        <v>655</v>
+      </c>
+      <c r="D349" t="s">
+        <v>619</v>
+      </c>
+      <c r="E349" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="G349" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>35</v>
+      </c>
+      <c r="C350" t="s">
+        <v>657</v>
+      </c>
+      <c r="D350" t="s">
+        <v>616</v>
+      </c>
+      <c r="E350" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>138.69</v>
+      </c>
+      <c r="G350" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>659</v>
+      </c>
+      <c r="C351" t="s">
+        <v>660</v>
+      </c>
+      <c r="D351" t="s">
+        <v>661</v>
+      </c>
+      <c r="E351" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>588.69</v>
+      </c>
+      <c r="G351" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>48</v>
+      </c>
+      <c r="C352" t="s">
+        <v>662</v>
+      </c>
+      <c r="D352" t="s">
+        <v>619</v>
+      </c>
+      <c r="E352" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>563.69</v>
+      </c>
+      <c r="G352" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>48</v>
+      </c>
+      <c r="C353" t="s">
+        <v>664</v>
+      </c>
+      <c r="D353" t="s">
+        <v>619</v>
+      </c>
+      <c r="E353" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F353" t="n">
+        <v>538.69</v>
+      </c>
+      <c r="G353" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>32</v>
+      </c>
+      <c r="C354" t="s">
+        <v>666</v>
+      </c>
+      <c r="D354" t="s">
+        <v>616</v>
+      </c>
+      <c r="E354" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>597.69</v>
+      </c>
+      <c r="G354" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>668</v>
+      </c>
+      <c r="C355" t="s">
+        <v>626</v>
+      </c>
+      <c r="D355" t="s">
+        <v>626</v>
+      </c>
+      <c r="E355" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>375.69</v>
+      </c>
+      <c r="G355" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>48</v>
+      </c>
+      <c r="C356" t="s">
+        <v>670</v>
+      </c>
+      <c r="D356" t="s">
+        <v>616</v>
+      </c>
+      <c r="E356" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="G356" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>48</v>
+      </c>
+      <c r="C357" t="s">
+        <v>672</v>
+      </c>
+      <c r="D357" t="s">
+        <v>616</v>
+      </c>
+      <c r="E357" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>389.69</v>
+      </c>
+      <c r="G357" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>48</v>
+      </c>
+      <c r="C358" t="s">
+        <v>674</v>
+      </c>
+      <c r="D358" t="s">
+        <v>619</v>
+      </c>
+      <c r="E358" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>379.69</v>
+      </c>
+      <c r="G358" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>48</v>
+      </c>
+      <c r="C359" t="s">
+        <v>676</v>
+      </c>
+      <c r="D359" t="s">
+        <v>619</v>
+      </c>
+      <c r="E359" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>369.69</v>
+      </c>
+      <c r="G359" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>48</v>
+      </c>
+      <c r="C360" t="s">
+        <v>678</v>
+      </c>
+      <c r="D360" t="s">
+        <v>616</v>
+      </c>
+      <c r="E360" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>376.69</v>
+      </c>
+      <c r="G360" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>48</v>
+      </c>
+      <c r="C361" t="s">
+        <v>680</v>
+      </c>
+      <c r="D361" t="s">
+        <v>619</v>
+      </c>
+      <c r="E361" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>366.69</v>
+      </c>
+      <c r="G361" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>48</v>
+      </c>
+      <c r="C362" t="s">
+        <v>682</v>
+      </c>
+      <c r="D362" t="s">
+        <v>616</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>373.69</v>
+      </c>
+      <c r="G362" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>48</v>
+      </c>
+      <c r="C363" t="s">
+        <v>684</v>
+      </c>
+      <c r="D363" t="s">
+        <v>619</v>
+      </c>
+      <c r="E363" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>363.69</v>
+      </c>
+      <c r="G363" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>48</v>
+      </c>
+      <c r="C364" t="s">
+        <v>686</v>
+      </c>
+      <c r="D364" t="s">
+        <v>616</v>
+      </c>
+      <c r="E364" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>370.69</v>
+      </c>
+      <c r="G364" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>48</v>
+      </c>
+      <c r="C365" t="s">
+        <v>688</v>
+      </c>
+      <c r="D365" t="s">
+        <v>616</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>377.69</v>
+      </c>
+      <c r="G365" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>48</v>
+      </c>
+      <c r="C366" t="s">
+        <v>690</v>
+      </c>
+      <c r="D366" t="s">
+        <v>616</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>384.69</v>
+      </c>
+      <c r="G366" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>48</v>
+      </c>
+      <c r="C367" t="s">
+        <v>692</v>
+      </c>
+      <c r="D367" t="s">
+        <v>616</v>
+      </c>
+      <c r="E367" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>391.69</v>
+      </c>
+      <c r="G367" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>48</v>
+      </c>
+      <c r="C368" t="s">
+        <v>694</v>
+      </c>
+      <c r="D368" t="s">
+        <v>619</v>
+      </c>
+      <c r="E368" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>381.69</v>
+      </c>
+      <c r="G368" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>48</v>
+      </c>
+      <c r="C369" t="s">
+        <v>696</v>
+      </c>
+      <c r="D369" t="s">
+        <v>619</v>
+      </c>
+      <c r="E369" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>371.69</v>
+      </c>
+      <c r="G369" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>48</v>
+      </c>
+      <c r="C370" t="s">
+        <v>698</v>
+      </c>
+      <c r="D370" t="s">
+        <v>619</v>
+      </c>
+      <c r="E370" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>361.69</v>
+      </c>
+      <c r="G370" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>48</v>
+      </c>
+      <c r="C371" t="s">
+        <v>700</v>
+      </c>
+      <c r="D371" t="s">
+        <v>616</v>
+      </c>
+      <c r="E371" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>368.69</v>
+      </c>
+      <c r="G371" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>48</v>
+      </c>
+      <c r="C372" t="s">
+        <v>702</v>
+      </c>
+      <c r="D372" t="s">
+        <v>616</v>
+      </c>
+      <c r="E372" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>375.69</v>
+      </c>
+      <c r="G372" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>48</v>
+      </c>
+      <c r="C373" t="s">
+        <v>704</v>
+      </c>
+      <c r="D373" t="s">
+        <v>619</v>
+      </c>
+      <c r="E373" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>365.69</v>
+      </c>
+      <c r="G373" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>48</v>
+      </c>
+      <c r="C374" t="s">
+        <v>706</v>
+      </c>
+      <c r="D374" t="s">
+        <v>619</v>
+      </c>
+      <c r="E374" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="G374" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>48</v>
+      </c>
+      <c r="C375" t="s">
+        <v>708</v>
+      </c>
+      <c r="D375" t="s">
+        <v>616</v>
+      </c>
+      <c r="E375" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="G375" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>48</v>
+      </c>
+      <c r="C376" t="s">
+        <v>710</v>
+      </c>
+      <c r="D376" t="s">
+        <v>619</v>
+      </c>
+      <c r="E376" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>352.69</v>
+      </c>
+      <c r="G376" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>48</v>
+      </c>
+      <c r="C377" t="s">
+        <v>712</v>
+      </c>
+      <c r="D377" t="s">
+        <v>616</v>
+      </c>
+      <c r="E377" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>359.69</v>
+      </c>
+      <c r="G377" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>48</v>
+      </c>
+      <c r="C378" t="s">
+        <v>714</v>
+      </c>
+      <c r="D378" t="s">
+        <v>616</v>
+      </c>
+      <c r="E378" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>366.69</v>
+      </c>
+      <c r="G378" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>32</v>
+      </c>
+      <c r="C379" t="s">
+        <v>716</v>
+      </c>
+      <c r="D379" t="s">
+        <v>634</v>
+      </c>
+      <c r="E379" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>341.69</v>
+      </c>
+      <c r="G379" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>32</v>
+      </c>
+      <c r="C380" t="s">
+        <v>716</v>
+      </c>
+      <c r="D380" t="s">
+        <v>634</v>
+      </c>
+      <c r="E380" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>316.69</v>
+      </c>
+      <c r="G380" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>32</v>
+      </c>
+      <c r="C381" t="s">
+        <v>716</v>
+      </c>
+      <c r="D381" t="s">
+        <v>619</v>
+      </c>
+      <c r="E381" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>291.69</v>
+      </c>
+      <c r="G381" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>32</v>
+      </c>
+      <c r="C382" t="s">
+        <v>720</v>
+      </c>
+      <c r="D382" t="s">
+        <v>619</v>
+      </c>
+      <c r="E382" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>266.69</v>
+      </c>
+      <c r="G382" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>32</v>
+      </c>
+      <c r="C383" t="s">
+        <v>722</v>
+      </c>
+      <c r="D383" t="s">
+        <v>619</v>
+      </c>
+      <c r="E383" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>241.69</v>
+      </c>
+      <c r="G383" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>32</v>
+      </c>
+      <c r="C384" t="s">
+        <v>724</v>
+      </c>
+      <c r="D384" t="s">
+        <v>619</v>
+      </c>
+      <c r="E384" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>191.69</v>
+      </c>
+      <c r="G384" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>32</v>
+      </c>
+      <c r="C385" t="s">
+        <v>726</v>
+      </c>
+      <c r="D385" t="s">
+        <v>619</v>
+      </c>
+      <c r="E385" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>141.69</v>
+      </c>
+      <c r="G385" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>32</v>
+      </c>
+      <c r="C386" t="s">
+        <v>728</v>
+      </c>
+      <c r="D386" t="s">
+        <v>619</v>
+      </c>
+      <c r="E386" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>91.69</v>
+      </c>
+      <c r="G386" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>32</v>
+      </c>
+      <c r="C387" t="s">
+        <v>730</v>
+      </c>
+      <c r="D387" t="s">
+        <v>619</v>
+      </c>
+      <c r="E387" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="G387" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>48</v>
+      </c>
+      <c r="C388" t="s">
+        <v>732</v>
+      </c>
+      <c r="D388" t="s">
+        <v>616</v>
+      </c>
+      <c r="E388" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="G388" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>48</v>
+      </c>
+      <c r="C389" t="s">
+        <v>734</v>
+      </c>
+      <c r="D389" t="s">
+        <v>619</v>
+      </c>
+      <c r="E389" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="G389" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>48</v>
+      </c>
+      <c r="C390" t="s">
+        <v>736</v>
+      </c>
+      <c r="D390" t="s">
+        <v>616</v>
+      </c>
+      <c r="E390" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="G390" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>48</v>
+      </c>
+      <c r="C391" t="s">
+        <v>738</v>
+      </c>
+      <c r="D391" t="s">
+        <v>616</v>
+      </c>
+      <c r="E391" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F391" t="n">
+        <v>109.69</v>
+      </c>
+      <c r="G391" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>35</v>
+      </c>
+      <c r="C392" t="s">
+        <v>740</v>
+      </c>
+      <c r="D392" t="s">
+        <v>619</v>
+      </c>
+      <c r="E392" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F392" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="G392" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>48</v>
+      </c>
+      <c r="C393" t="s">
+        <v>742</v>
+      </c>
+      <c r="D393" t="s">
+        <v>616</v>
+      </c>
+      <c r="E393" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F393" t="n">
+        <v>101.69</v>
+      </c>
+      <c r="G393" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>48</v>
+      </c>
+      <c r="C394" t="s">
+        <v>744</v>
+      </c>
+      <c r="D394" t="s">
+        <v>616</v>
+      </c>
+      <c r="E394" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F394" t="n">
+        <v>171.69</v>
+      </c>
+      <c r="G394" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>48</v>
+      </c>
+      <c r="C395" t="s">
+        <v>746</v>
+      </c>
+      <c r="D395" t="s">
+        <v>616</v>
+      </c>
+      <c r="E395" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F395" t="n">
+        <v>188.69</v>
+      </c>
+      <c r="G395" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>48</v>
+      </c>
+      <c r="C396" t="s">
+        <v>748</v>
+      </c>
+      <c r="D396" t="s">
+        <v>619</v>
+      </c>
+      <c r="E396" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F396" t="n">
+        <v>178.69</v>
+      </c>
+      <c r="G396" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396.0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>48</v>
+      </c>
+      <c r="C397" t="s">
+        <v>750</v>
+      </c>
+      <c r="D397" t="s">
+        <v>619</v>
+      </c>
+      <c r="E397" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F397" t="n">
+        <v>153.69</v>
+      </c>
+      <c r="G397" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>48</v>
+      </c>
+      <c r="C398" t="s">
+        <v>752</v>
+      </c>
+      <c r="D398" t="s">
+        <v>616</v>
+      </c>
+      <c r="E398" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>187.69</v>
+      </c>
+      <c r="G398" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>48</v>
+      </c>
+      <c r="C399" t="s">
+        <v>754</v>
+      </c>
+      <c r="D399" t="s">
+        <v>616</v>
+      </c>
+      <c r="E399" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>194.69</v>
+      </c>
+      <c r="G399" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>48</v>
+      </c>
+      <c r="C400" t="s">
+        <v>756</v>
+      </c>
+      <c r="D400" t="s">
+        <v>616</v>
+      </c>
+      <c r="E400" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>201.69</v>
+      </c>
+      <c r="G400" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>668</v>
+      </c>
+      <c r="C401" t="s">
+        <v>626</v>
+      </c>
+      <c r="D401" t="s">
+        <v>626</v>
+      </c>
+      <c r="E401" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G401" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>625</v>
+      </c>
+      <c r="C402" t="s">
+        <v>626</v>
+      </c>
+      <c r="D402" t="s">
+        <v>626</v>
+      </c>
+      <c r="E402" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>101.69</v>
+      </c>
+      <c r="G402" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>48</v>
+      </c>
+      <c r="C403" t="s">
+        <v>760</v>
+      </c>
+      <c r="D403" t="s">
+        <v>616</v>
+      </c>
+      <c r="E403" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>108.69</v>
+      </c>
+      <c r="G403" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>48</v>
+      </c>
+      <c r="C404" t="s">
+        <v>762</v>
+      </c>
+      <c r="D404" t="s">
+        <v>616</v>
+      </c>
+      <c r="E404" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>115.69</v>
+      </c>
+      <c r="G404" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B405" t="s">
+        <v>48</v>
+      </c>
+      <c r="C405" t="s">
+        <v>764</v>
+      </c>
+      <c r="D405" t="s">
+        <v>619</v>
+      </c>
+      <c r="E405" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F405" t="n">
+        <v>105.69</v>
+      </c>
+      <c r="G405" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>48</v>
+      </c>
+      <c r="C406" t="s">
+        <v>766</v>
+      </c>
+      <c r="D406" t="s">
+        <v>616</v>
+      </c>
+      <c r="E406" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>112.69</v>
+      </c>
+      <c r="G406" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>48</v>
+      </c>
+      <c r="C407" t="s">
+        <v>768</v>
+      </c>
+      <c r="D407" t="s">
+        <v>616</v>
+      </c>
+      <c r="E407" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>119.69</v>
+      </c>
+      <c r="G407" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>48</v>
+      </c>
+      <c r="C408" t="s">
+        <v>770</v>
+      </c>
+      <c r="D408" t="s">
+        <v>619</v>
+      </c>
+      <c r="E408" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>109.69</v>
+      </c>
+      <c r="G408" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>48</v>
+      </c>
+      <c r="C409" t="s">
+        <v>772</v>
+      </c>
+      <c r="D409" t="s">
+        <v>619</v>
+      </c>
+      <c r="E409" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="G409" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>48</v>
+      </c>
+      <c r="C410" t="s">
+        <v>774</v>
+      </c>
+      <c r="D410" t="s">
+        <v>616</v>
+      </c>
+      <c r="E410" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>106.69</v>
+      </c>
+      <c r="G410" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>48</v>
+      </c>
+      <c r="C411" t="s">
+        <v>776</v>
+      </c>
+      <c r="D411" t="s">
+        <v>616</v>
+      </c>
+      <c r="E411" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F411" t="n">
+        <v>113.69</v>
+      </c>
+      <c r="G411" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>48</v>
+      </c>
+      <c r="C412" t="s">
+        <v>778</v>
+      </c>
+      <c r="D412" t="s">
+        <v>616</v>
+      </c>
+      <c r="E412" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F412" t="n">
+        <v>120.69</v>
+      </c>
+      <c r="G412" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>48</v>
+      </c>
+      <c r="C413" t="s">
+        <v>780</v>
+      </c>
+      <c r="D413" t="s">
+        <v>619</v>
+      </c>
+      <c r="E413" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F413" t="n">
+        <v>110.69</v>
+      </c>
+      <c r="G413" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>48</v>
+      </c>
+      <c r="C414" t="s">
+        <v>782</v>
+      </c>
+      <c r="D414" t="s">
+        <v>616</v>
+      </c>
+      <c r="E414" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F414" t="n">
+        <v>117.69</v>
+      </c>
+      <c r="G414" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>48</v>
+      </c>
+      <c r="C415" t="s">
+        <v>784</v>
+      </c>
+      <c r="D415" t="s">
+        <v>616</v>
+      </c>
+      <c r="E415" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F415" t="n">
+        <v>124.69</v>
+      </c>
+      <c r="G415" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" t="s">
+        <v>786</v>
+      </c>
+      <c r="D416" t="s">
+        <v>616</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F416" t="n">
+        <v>126.89</v>
+      </c>
+      <c r="G416" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>32</v>
+      </c>
+      <c r="C417" t="s">
+        <v>788</v>
+      </c>
+      <c r="D417" t="s">
+        <v>619</v>
+      </c>
+      <c r="E417" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>101.89</v>
+      </c>
+      <c r="G417" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>32</v>
+      </c>
+      <c r="C418" t="s">
+        <v>790</v>
+      </c>
+      <c r="D418" t="s">
+        <v>619</v>
+      </c>
+      <c r="E418" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F418" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="G418" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>32</v>
+      </c>
+      <c r="C419" t="s">
+        <v>792</v>
+      </c>
+      <c r="D419" t="s">
+        <v>619</v>
+      </c>
+      <c r="E419" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F419" t="n">
+        <v>51.89</v>
+      </c>
+      <c r="G419" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>32</v>
+      </c>
+      <c r="C420" t="s">
+        <v>794</v>
+      </c>
+      <c r="D420" t="s">
+        <v>619</v>
+      </c>
+      <c r="E420" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F420" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="G420" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>48</v>
+      </c>
+      <c r="C421" t="s">
+        <v>796</v>
+      </c>
+      <c r="D421" t="s">
+        <v>619</v>
+      </c>
+      <c r="E421" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G421" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>625</v>
+      </c>
+      <c r="C422" t="s">
+        <v>626</v>
+      </c>
+      <c r="D422" t="s">
+        <v>626</v>
+      </c>
+      <c r="E422" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F422" t="n">
+        <v>101.89</v>
+      </c>
+      <c r="G422" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B423" t="s">
+        <v>32</v>
+      </c>
+      <c r="C423" t="s">
+        <v>799</v>
+      </c>
+      <c r="D423" t="s">
+        <v>619</v>
+      </c>
+      <c r="E423" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F423" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="G423" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>32</v>
+      </c>
+      <c r="C424" t="s">
+        <v>801</v>
+      </c>
+      <c r="D424" t="s">
+        <v>619</v>
+      </c>
+      <c r="E424" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>51.89</v>
+      </c>
+      <c r="G424" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="B425" t="s">
+        <v>32</v>
+      </c>
+      <c r="C425" t="s">
+        <v>803</v>
+      </c>
+      <c r="D425" t="s">
+        <v>619</v>
+      </c>
+      <c r="E425" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="G425" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425.0</v>
+      </c>
+      <c r="B426" t="s">
+        <v>32</v>
+      </c>
+      <c r="C426" t="s">
+        <v>805</v>
+      </c>
+      <c r="D426" t="s">
+        <v>619</v>
+      </c>
+      <c r="E426" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G426" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B427" t="s">
+        <v>625</v>
+      </c>
+      <c r="C427" t="s">
+        <v>626</v>
+      </c>
+      <c r="D427" t="s">
+        <v>626</v>
+      </c>
+      <c r="E427" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F427" t="n">
+        <v>101.89</v>
+      </c>
+      <c r="G427" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="B428" t="s">
+        <v>32</v>
+      </c>
+      <c r="C428" t="s">
+        <v>808</v>
+      </c>
+      <c r="D428" t="s">
+        <v>634</v>
+      </c>
+      <c r="E428" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>76.89</v>
+      </c>
+      <c r="G428" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="B429" t="s">
+        <v>32</v>
+      </c>
+      <c r="C429" t="s">
+        <v>808</v>
+      </c>
+      <c r="D429" t="s">
+        <v>616</v>
+      </c>
+      <c r="E429" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F429" t="n">
+        <v>100.89</v>
+      </c>
+      <c r="G429" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>32</v>
+      </c>
+      <c r="C430" t="s">
+        <v>811</v>
+      </c>
+      <c r="D430" t="s">
+        <v>616</v>
+      </c>
+      <c r="E430" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>222.89</v>
+      </c>
+      <c r="G430" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B431" t="s">
+        <v>659</v>
+      </c>
+      <c r="C431" t="s">
+        <v>813</v>
+      </c>
+      <c r="D431" t="s">
+        <v>814</v>
+      </c>
+      <c r="E431" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>247.89</v>
+      </c>
+      <c r="G431" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="B432" t="s">
+        <v>48</v>
+      </c>
+      <c r="C432" t="s">
+        <v>815</v>
+      </c>
+      <c r="D432" t="s">
+        <v>616</v>
+      </c>
+      <c r="E432" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F432" t="n">
+        <v>254.89</v>
+      </c>
+      <c r="G432" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="B433" t="s">
+        <v>668</v>
+      </c>
+      <c r="C433" t="s">
+        <v>626</v>
+      </c>
+      <c r="D433" t="s">
+        <v>626</v>
+      </c>
+      <c r="E433" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="F433" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="G433" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="B434" t="s">
+        <v>32</v>
+      </c>
+      <c r="C434" t="s">
+        <v>818</v>
+      </c>
+      <c r="D434" t="s">
+        <v>616</v>
+      </c>
+      <c r="E434" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F434" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="G434" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B435" t="s">
+        <v>32</v>
+      </c>
+      <c r="C435" t="s">
+        <v>820</v>
+      </c>
+      <c r="D435" t="s">
+        <v>616</v>
+      </c>
+      <c r="E435" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>102.89</v>
+      </c>
+      <c r="G435" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="B436" t="s">
+        <v>32</v>
+      </c>
+      <c r="C436" t="s">
+        <v>822</v>
+      </c>
+      <c r="D436" t="s">
+        <v>616</v>
+      </c>
+      <c r="E436" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>140.89</v>
+      </c>
+      <c r="G436" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="B437" t="s">
+        <v>659</v>
+      </c>
+      <c r="C437" t="s">
+        <v>824</v>
+      </c>
+      <c r="D437" t="s">
+        <v>825</v>
+      </c>
+      <c r="E437" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>150.89</v>
+      </c>
+      <c r="G437" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="B438" t="s">
+        <v>32</v>
+      </c>
+      <c r="C438" t="s">
+        <v>826</v>
+      </c>
+      <c r="D438" t="s">
+        <v>619</v>
+      </c>
+      <c r="E438" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>125.89</v>
+      </c>
+      <c r="G438" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>32</v>
+      </c>
+      <c r="C439" t="s">
+        <v>828</v>
+      </c>
+      <c r="D439" t="s">
+        <v>619</v>
+      </c>
+      <c r="E439" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>100.89</v>
+      </c>
+      <c r="G439" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="B440" t="s">
+        <v>32</v>
+      </c>
+      <c r="C440" t="s">
+        <v>830</v>
+      </c>
+      <c r="D440" t="s">
+        <v>634</v>
+      </c>
+      <c r="E440" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>75.89</v>
+      </c>
+      <c r="G440" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="B441" t="s">
+        <v>32</v>
+      </c>
+      <c r="C441" t="s">
+        <v>830</v>
+      </c>
+      <c r="D441" t="s">
+        <v>634</v>
+      </c>
+      <c r="E441" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F441" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="G441" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="B442" t="s">
+        <v>32</v>
+      </c>
+      <c r="C442" t="s">
+        <v>830</v>
+      </c>
+      <c r="D442" t="s">
+        <v>634</v>
+      </c>
+      <c r="E442" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F442" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="G442" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="B443" t="s">
+        <v>32</v>
+      </c>
+      <c r="C443" t="s">
+        <v>830</v>
+      </c>
+      <c r="D443" t="s">
+        <v>619</v>
+      </c>
+      <c r="E443" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G443" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="B444" t="s">
+        <v>625</v>
+      </c>
+      <c r="C444" t="s">
+        <v>626</v>
+      </c>
+      <c r="D444" t="s">
+        <v>626</v>
+      </c>
+      <c r="E444" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F444" t="n">
+        <v>200.89</v>
+      </c>
+      <c r="G444" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="B445" t="s">
+        <v>32</v>
+      </c>
+      <c r="C445" t="s">
+        <v>836</v>
+      </c>
+      <c r="D445" t="s">
+        <v>619</v>
+      </c>
+      <c r="E445" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F445" t="n">
+        <v>175.89</v>
+      </c>
+      <c r="G445" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>32</v>
+      </c>
+      <c r="C446" t="s">
+        <v>838</v>
+      </c>
+      <c r="D446" t="s">
+        <v>616</v>
+      </c>
+      <c r="E446" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F446" t="n">
+        <v>276.89</v>
+      </c>
+      <c r="G446" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>32</v>
+      </c>
+      <c r="C447" t="s">
+        <v>840</v>
+      </c>
+      <c r="D447" t="s">
+        <v>619</v>
+      </c>
+      <c r="E447" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>251.89</v>
+      </c>
+      <c r="G447" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>32</v>
+      </c>
+      <c r="C448" t="s">
+        <v>842</v>
+      </c>
+      <c r="D448" t="s">
+        <v>619</v>
+      </c>
+      <c r="E448" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F448" t="n">
+        <v>226.89</v>
+      </c>
+      <c r="G448" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>32</v>
+      </c>
+      <c r="C449" t="s">
+        <v>844</v>
+      </c>
+      <c r="D449" t="s">
+        <v>634</v>
+      </c>
+      <c r="E449" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F449" t="n">
+        <v>201.89</v>
+      </c>
+      <c r="G449" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>32</v>
+      </c>
+      <c r="C450" t="s">
+        <v>844</v>
+      </c>
+      <c r="D450" t="s">
+        <v>616</v>
+      </c>
+      <c r="E450" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F450" t="n">
+        <v>250.39</v>
+      </c>
+      <c r="G450" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>668</v>
+      </c>
+      <c r="C451" t="s">
+        <v>626</v>
+      </c>
+      <c r="D451" t="s">
+        <v>626</v>
+      </c>
+      <c r="E451" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F451" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="G451" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="B452" t="s">
+        <v>32</v>
+      </c>
+      <c r="C452" t="s">
+        <v>848</v>
+      </c>
+      <c r="D452" t="s">
+        <v>634</v>
+      </c>
+      <c r="E452" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F452" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="G452" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>32</v>
+      </c>
+      <c r="C453" t="s">
+        <v>848</v>
+      </c>
+      <c r="D453" t="s">
+        <v>619</v>
+      </c>
+      <c r="E453" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G453" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="B454" t="s">
+        <v>625</v>
+      </c>
+      <c r="C454" t="s">
+        <v>626</v>
+      </c>
+      <c r="D454" t="s">
+        <v>626</v>
+      </c>
+      <c r="E454" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F454" t="n">
+        <v>200.39</v>
+      </c>
+      <c r="G454" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>32</v>
+      </c>
+      <c r="C455" t="s">
+        <v>852</v>
+      </c>
+      <c r="D455" t="s">
+        <v>616</v>
+      </c>
+      <c r="E455" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F455" t="n">
+        <v>203.39</v>
+      </c>
+      <c r="G455" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>32</v>
+      </c>
+      <c r="C456" t="s">
+        <v>854</v>
+      </c>
+      <c r="D456" t="s">
+        <v>634</v>
+      </c>
+      <c r="E456" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F456" t="n">
+        <v>178.39</v>
+      </c>
+      <c r="G456" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>32</v>
+      </c>
+      <c r="C457" t="s">
+        <v>854</v>
+      </c>
+      <c r="D457" t="s">
+        <v>619</v>
+      </c>
+      <c r="E457" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F457" t="n">
+        <v>153.39</v>
+      </c>
+      <c r="G457" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="B458" t="s">
+        <v>32</v>
+      </c>
+      <c r="C458" t="s">
+        <v>857</v>
+      </c>
+      <c r="D458" t="s">
+        <v>619</v>
+      </c>
+      <c r="E458" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F458" t="n">
+        <v>128.39</v>
+      </c>
+      <c r="G458" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>32</v>
+      </c>
+      <c r="C459" t="s">
+        <v>859</v>
+      </c>
+      <c r="D459" t="s">
+        <v>634</v>
+      </c>
+      <c r="E459" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F459" t="n">
+        <v>103.39</v>
+      </c>
+      <c r="G459" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>32</v>
+      </c>
+      <c r="C460" t="s">
+        <v>859</v>
+      </c>
+      <c r="D460" t="s">
+        <v>619</v>
+      </c>
+      <c r="E460" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F460" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="G460" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>32</v>
+      </c>
+      <c r="C461" t="s">
+        <v>862</v>
+      </c>
+      <c r="D461" t="s">
+        <v>616</v>
+      </c>
+      <c r="E461" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>81.39</v>
+      </c>
+      <c r="G461" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="B462" t="s">
+        <v>35</v>
+      </c>
+      <c r="C462" t="s">
+        <v>864</v>
+      </c>
+      <c r="D462" t="s">
+        <v>619</v>
+      </c>
+      <c r="E462" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>71.39</v>
+      </c>
+      <c r="G462" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>32</v>
+      </c>
+      <c r="C463" t="s">
+        <v>866</v>
+      </c>
+      <c r="D463" t="s">
+        <v>619</v>
+      </c>
+      <c r="E463" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F463" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="G463" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>868</v>
+      </c>
+      <c r="C464" t="s">
+        <v>626</v>
+      </c>
+      <c r="D464" t="s">
+        <v>626</v>
+      </c>
+      <c r="E464" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="G464" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>32</v>
+      </c>
+      <c r="C465" t="s">
+        <v>870</v>
+      </c>
+      <c r="D465" t="s">
+        <v>634</v>
+      </c>
+      <c r="E465" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F465" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="G465" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>32</v>
+      </c>
+      <c r="C466" t="s">
+        <v>870</v>
+      </c>
+      <c r="D466" t="s">
+        <v>619</v>
+      </c>
+      <c r="E466" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F466" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="G466" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>625</v>
+      </c>
+      <c r="C467" t="s">
+        <v>626</v>
+      </c>
+      <c r="D467" t="s">
+        <v>626</v>
+      </c>
+      <c r="E467" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>216.39</v>
+      </c>
+      <c r="G467" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>32</v>
+      </c>
+      <c r="C468" t="s">
+        <v>874</v>
+      </c>
+      <c r="D468" t="s">
+        <v>616</v>
+      </c>
+      <c r="E468" t="n">
+        <v>-11.0</v>
+      </c>
+      <c r="F468" t="n">
+        <v>205.39</v>
+      </c>
+      <c r="G468" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>32</v>
+      </c>
+      <c r="C469" t="s">
+        <v>876</v>
+      </c>
+      <c r="D469" t="s">
+        <v>619</v>
+      </c>
+      <c r="E469" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F469" t="n">
+        <v>180.39</v>
+      </c>
+      <c r="G469" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469.0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>32</v>
+      </c>
+      <c r="C470" t="s">
+        <v>878</v>
+      </c>
+      <c r="D470" t="s">
+        <v>619</v>
+      </c>
+      <c r="E470" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>155.39</v>
+      </c>
+      <c r="G470" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>32</v>
+      </c>
+      <c r="C471" t="s">
+        <v>880</v>
+      </c>
+      <c r="D471" t="s">
+        <v>619</v>
+      </c>
+      <c r="E471" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>130.39</v>
+      </c>
+      <c r="G471" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>32</v>
+      </c>
+      <c r="C472" t="s">
+        <v>882</v>
+      </c>
+      <c r="D472" t="s">
+        <v>619</v>
+      </c>
+      <c r="E472" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>105.39</v>
+      </c>
+      <c r="G472" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="B473" t="s">
+        <v>32</v>
+      </c>
+      <c r="C473" t="s">
+        <v>884</v>
+      </c>
+      <c r="D473" t="s">
+        <v>619</v>
+      </c>
+      <c r="E473" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="G473" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="B474" t="s">
+        <v>32</v>
+      </c>
+      <c r="C474" t="s">
+        <v>886</v>
+      </c>
+      <c r="D474" t="s">
+        <v>619</v>
+      </c>
+      <c r="E474" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="G474" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="B475" t="s">
+        <v>32</v>
+      </c>
+      <c r="C475" t="s">
+        <v>888</v>
+      </c>
+      <c r="D475" t="s">
+        <v>619</v>
+      </c>
+      <c r="E475" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="G475" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>32</v>
+      </c>
+      <c r="C476" t="s">
+        <v>890</v>
+      </c>
+      <c r="D476" t="s">
+        <v>619</v>
+      </c>
+      <c r="E476" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G476" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>892</v>
+      </c>
+      <c r="C477" t="s">
+        <v>626</v>
+      </c>
+      <c r="D477" t="s">
+        <v>626</v>
+      </c>
+      <c r="E477" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="F477" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G477" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>625</v>
+      </c>
+      <c r="C478" t="s">
+        <v>626</v>
+      </c>
+      <c r="D478" t="s">
+        <v>626</v>
+      </c>
+      <c r="E478" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>103.07</v>
+      </c>
+      <c r="G478" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>32</v>
+      </c>
+      <c r="C479" t="s">
+        <v>894</v>
+      </c>
+      <c r="D479" t="s">
+        <v>619</v>
+      </c>
+      <c r="E479" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>78.07</v>
+      </c>
+      <c r="G479" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>32</v>
+      </c>
+      <c r="C480" t="s">
+        <v>896</v>
+      </c>
+      <c r="D480" t="s">
+        <v>619</v>
+      </c>
+      <c r="E480" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>53.07</v>
+      </c>
+      <c r="G480" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>32</v>
+      </c>
+      <c r="C481" t="s">
+        <v>898</v>
+      </c>
+      <c r="D481" t="s">
+        <v>616</v>
+      </c>
+      <c r="E481" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F481" t="n">
+        <v>101.57</v>
+      </c>
+      <c r="G481" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481.0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>32</v>
+      </c>
+      <c r="C482" t="s">
+        <v>900</v>
+      </c>
+      <c r="D482" t="s">
+        <v>634</v>
+      </c>
+      <c r="E482" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>76.57</v>
+      </c>
+      <c r="G482" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>32</v>
+      </c>
+      <c r="C483" t="s">
+        <v>900</v>
+      </c>
+      <c r="D483" t="s">
+        <v>616</v>
+      </c>
+      <c r="E483" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>107.57</v>
+      </c>
+      <c r="G483" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>32</v>
+      </c>
+      <c r="C484" t="s">
+        <v>903</v>
+      </c>
+      <c r="D484" t="s">
+        <v>634</v>
+      </c>
+      <c r="E484" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>82.57</v>
+      </c>
+      <c r="G484" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>32</v>
+      </c>
+      <c r="C485" t="s">
+        <v>903</v>
+      </c>
+      <c r="D485" t="s">
+        <v>616</v>
+      </c>
+      <c r="E485" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>225.57</v>
+      </c>
+      <c r="G485" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>32</v>
+      </c>
+      <c r="C486" t="s">
+        <v>906</v>
+      </c>
+      <c r="D486" t="s">
+        <v>619</v>
+      </c>
+      <c r="E486" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>200.57</v>
+      </c>
+      <c r="G486" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>32</v>
+      </c>
+      <c r="C487" t="s">
+        <v>908</v>
+      </c>
+      <c r="D487" t="s">
+        <v>616</v>
+      </c>
+      <c r="E487" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>224.57</v>
+      </c>
+      <c r="G487" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>32</v>
+      </c>
+      <c r="C488" t="s">
+        <v>910</v>
+      </c>
+      <c r="D488" t="s">
+        <v>619</v>
+      </c>
+      <c r="E488" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>199.57</v>
+      </c>
+      <c r="G488" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>32</v>
+      </c>
+      <c r="C489" t="s">
+        <v>912</v>
+      </c>
+      <c r="D489" t="s">
+        <v>619</v>
+      </c>
+      <c r="E489" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>174.57</v>
+      </c>
+      <c r="G489" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>32</v>
+      </c>
+      <c r="C490" t="s">
+        <v>914</v>
+      </c>
+      <c r="D490" t="s">
+        <v>619</v>
+      </c>
+      <c r="E490" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>149.57</v>
+      </c>
+      <c r="G490" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="B491" t="s">
+        <v>32</v>
+      </c>
+      <c r="C491" t="s">
+        <v>916</v>
+      </c>
+      <c r="D491" t="s">
+        <v>619</v>
+      </c>
+      <c r="E491" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>124.57</v>
+      </c>
+      <c r="G491" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="B492" t="s">
+        <v>32</v>
+      </c>
+      <c r="C492" t="s">
+        <v>918</v>
+      </c>
+      <c r="D492" t="s">
+        <v>619</v>
+      </c>
+      <c r="E492" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F492" t="n">
+        <v>99.57</v>
+      </c>
+      <c r="G492" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B493" t="s">
+        <v>32</v>
+      </c>
+      <c r="C493" t="s">
+        <v>920</v>
+      </c>
+      <c r="D493" t="s">
+        <v>619</v>
+      </c>
+      <c r="E493" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>74.57</v>
+      </c>
+      <c r="G493" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="B494" t="s">
+        <v>32</v>
+      </c>
+      <c r="C494" t="s">
+        <v>922</v>
+      </c>
+      <c r="D494" t="s">
+        <v>616</v>
+      </c>
+      <c r="E494" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>112.57</v>
+      </c>
+      <c r="G494" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="B495" t="s">
+        <v>32</v>
+      </c>
+      <c r="C495" t="s">
+        <v>924</v>
+      </c>
+      <c r="D495" t="s">
+        <v>619</v>
+      </c>
+      <c r="E495" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>87.57</v>
+      </c>
+      <c r="G495" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>32</v>
+      </c>
+      <c r="C496" t="s">
+        <v>926</v>
+      </c>
+      <c r="D496" t="s">
+        <v>619</v>
+      </c>
+      <c r="E496" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>62.57</v>
+      </c>
+      <c r="G496" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B497" t="s">
+        <v>32</v>
+      </c>
+      <c r="C497" t="s">
+        <v>928</v>
+      </c>
+      <c r="D497" t="s">
+        <v>619</v>
+      </c>
+      <c r="E497" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="G497" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>32</v>
+      </c>
+      <c r="C498" t="s">
+        <v>930</v>
+      </c>
+      <c r="D498" t="s">
+        <v>616</v>
+      </c>
+      <c r="E498" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="G498" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>32</v>
+      </c>
+      <c r="C499" t="s">
+        <v>932</v>
+      </c>
+      <c r="D499" t="s">
+        <v>616</v>
+      </c>
+      <c r="E499" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>92.57</v>
+      </c>
+      <c r="G499" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B500" t="s">
+        <v>32</v>
+      </c>
+      <c r="C500" t="s">
+        <v>934</v>
+      </c>
+      <c r="D500" t="s">
+        <v>616</v>
+      </c>
+      <c r="E500" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F500" t="n">
+        <v>105.57</v>
+      </c>
+      <c r="G500" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="B501" t="s">
+        <v>32</v>
+      </c>
+      <c r="C501" t="s">
+        <v>936</v>
+      </c>
+      <c r="D501" t="s">
+        <v>634</v>
+      </c>
+      <c r="E501" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>80.57</v>
+      </c>
+      <c r="G501" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="B502" t="s">
+        <v>32</v>
+      </c>
+      <c r="C502" t="s">
+        <v>936</v>
+      </c>
+      <c r="D502" t="s">
+        <v>616</v>
+      </c>
+      <c r="E502" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>202.57</v>
+      </c>
+      <c r="G502" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="B503" t="s">
+        <v>32</v>
+      </c>
+      <c r="C503" t="s">
+        <v>939</v>
+      </c>
+      <c r="D503" t="s">
+        <v>619</v>
+      </c>
+      <c r="E503" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>177.57</v>
+      </c>
+      <c r="G503" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="B504" t="s">
+        <v>32</v>
+      </c>
+      <c r="C504" t="s">
+        <v>941</v>
+      </c>
+      <c r="D504" t="s">
+        <v>634</v>
+      </c>
+      <c r="E504" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>152.57</v>
+      </c>
+      <c r="G504" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B505" t="s">
+        <v>32</v>
+      </c>
+      <c r="C505" t="s">
+        <v>941</v>
+      </c>
+      <c r="D505" t="s">
+        <v>616</v>
+      </c>
+      <c r="E505" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>190.57</v>
+      </c>
+      <c r="G505" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="B506" t="s">
+        <v>32</v>
+      </c>
+      <c r="C506" t="s">
+        <v>944</v>
+      </c>
+      <c r="D506" t="s">
+        <v>634</v>
+      </c>
+      <c r="E506" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F506" t="n">
+        <v>165.57</v>
+      </c>
+      <c r="G506" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="B507" t="s">
+        <v>32</v>
+      </c>
+      <c r="C507" t="s">
+        <v>944</v>
+      </c>
+      <c r="D507" t="s">
+        <v>634</v>
+      </c>
+      <c r="E507" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F507" t="n">
+        <v>140.57</v>
+      </c>
+      <c r="G507" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="B508" t="s">
+        <v>32</v>
+      </c>
+      <c r="C508" t="s">
+        <v>944</v>
+      </c>
+      <c r="D508" t="s">
+        <v>619</v>
+      </c>
+      <c r="E508" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F508" t="n">
+        <v>115.57</v>
+      </c>
+      <c r="G508" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B509" t="s">
+        <v>32</v>
+      </c>
+      <c r="C509" t="s">
+        <v>948</v>
+      </c>
+      <c r="D509" t="s">
+        <v>619</v>
+      </c>
+      <c r="E509" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F509" t="n">
+        <v>90.57</v>
+      </c>
+      <c r="G509" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509.0</v>
+      </c>
+      <c r="B510" t="s">
+        <v>32</v>
+      </c>
+      <c r="C510" t="s">
+        <v>950</v>
+      </c>
+      <c r="D510" t="s">
+        <v>616</v>
+      </c>
+      <c r="E510" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F510" t="n">
+        <v>107.57</v>
+      </c>
+      <c r="G510" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="B511" t="s">
+        <v>32</v>
+      </c>
+      <c r="C511" t="s">
+        <v>952</v>
+      </c>
+      <c r="D511" t="s">
+        <v>616</v>
+      </c>
+      <c r="E511" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F511" t="n">
+        <v>156.07</v>
+      </c>
+      <c r="G511" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="B512" t="s">
+        <v>32</v>
+      </c>
+      <c r="C512" t="s">
+        <v>954</v>
+      </c>
+      <c r="D512" t="s">
+        <v>634</v>
+      </c>
+      <c r="E512" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F512" t="n">
+        <v>131.07</v>
+      </c>
+      <c r="G512" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>32</v>
+      </c>
+      <c r="C513" t="s">
+        <v>954</v>
+      </c>
+      <c r="D513" t="s">
+        <v>616</v>
+      </c>
+      <c r="E513" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F513" t="n">
+        <v>190.07</v>
+      </c>
+      <c r="G513" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>32</v>
+      </c>
+      <c r="C514" t="s">
+        <v>957</v>
+      </c>
+      <c r="D514" t="s">
+        <v>616</v>
+      </c>
+      <c r="E514" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F514" t="n">
+        <v>193.07</v>
+      </c>
+      <c r="G514" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>32</v>
+      </c>
+      <c r="C515" t="s">
+        <v>959</v>
+      </c>
+      <c r="D515" t="s">
+        <v>616</v>
+      </c>
+      <c r="E515" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F515" t="n">
+        <v>238.07</v>
+      </c>
+      <c r="G515" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>668</v>
+      </c>
+      <c r="C516" t="s">
+        <v>626</v>
+      </c>
+      <c r="D516" t="s">
+        <v>626</v>
+      </c>
+      <c r="E516" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F516" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="G516" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>32</v>
+      </c>
+      <c r="C517" t="s">
+        <v>961</v>
+      </c>
+      <c r="D517" t="s">
+        <v>619</v>
+      </c>
+      <c r="E517" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F517" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="G517" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>35</v>
+      </c>
+      <c r="C518" t="s">
+        <v>963</v>
+      </c>
+      <c r="D518" t="s">
+        <v>619</v>
+      </c>
+      <c r="E518" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F518" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G518" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518.0</v>
+      </c>
+      <c r="B519" t="s">
+        <v>625</v>
+      </c>
+      <c r="C519" t="s">
+        <v>626</v>
+      </c>
+      <c r="D519" t="s">
+        <v>626</v>
+      </c>
+      <c r="E519" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F519" t="n">
+        <v>103.07</v>
+      </c>
+      <c r="G519" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="B520" t="s">
+        <v>32</v>
+      </c>
+      <c r="C520" t="s">
+        <v>966</v>
+      </c>
+      <c r="D520" t="s">
+        <v>619</v>
+      </c>
+      <c r="E520" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>78.07</v>
+      </c>
+      <c r="G520" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="B521" t="s">
+        <v>32</v>
+      </c>
+      <c r="C521" t="s">
+        <v>968</v>
+      </c>
+      <c r="D521" t="s">
+        <v>619</v>
+      </c>
+      <c r="E521" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>53.07</v>
+      </c>
+      <c r="G521" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="B522" t="s">
+        <v>32</v>
+      </c>
+      <c r="C522" t="s">
+        <v>970</v>
+      </c>
+      <c r="D522" t="s">
+        <v>619</v>
+      </c>
+      <c r="E522" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="G522" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="B523" t="s">
+        <v>32</v>
+      </c>
+      <c r="C523" t="s">
+        <v>972</v>
+      </c>
+      <c r="D523" t="s">
+        <v>619</v>
+      </c>
+      <c r="E523" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G523" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523.0</v>
+      </c>
+      <c r="B524" t="s">
+        <v>625</v>
+      </c>
+      <c r="C524" t="s">
+        <v>626</v>
+      </c>
+      <c r="D524" t="s">
+        <v>626</v>
+      </c>
+      <c r="E524" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>103.07</v>
+      </c>
+      <c r="G524" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B525" t="s">
+        <v>32</v>
+      </c>
+      <c r="C525" t="s">
+        <v>975</v>
+      </c>
+      <c r="D525" t="s">
+        <v>619</v>
+      </c>
+      <c r="E525" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>78.07</v>
+      </c>
+      <c r="G525" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525.0</v>
+      </c>
+      <c r="B526" t="s">
+        <v>32</v>
+      </c>
+      <c r="C526" t="s">
+        <v>977</v>
+      </c>
+      <c r="D526" t="s">
+        <v>616</v>
+      </c>
+      <c r="E526" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>95.07</v>
+      </c>
+      <c r="G526" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="B527" t="s">
+        <v>32</v>
+      </c>
+      <c r="C527" t="s">
+        <v>979</v>
+      </c>
+      <c r="D527" t="s">
+        <v>634</v>
+      </c>
+      <c r="E527" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F527" t="n">
+        <v>70.07</v>
+      </c>
+      <c r="G527" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="B528" t="s">
+        <v>32</v>
+      </c>
+      <c r="C528" t="s">
+        <v>979</v>
+      </c>
+      <c r="D528" t="s">
+        <v>616</v>
+      </c>
+      <c r="E528" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>108.07</v>
+      </c>
+      <c r="G528" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B529" t="s">
+        <v>48</v>
+      </c>
+      <c r="C529" t="s">
+        <v>982</v>
+      </c>
+      <c r="D529" t="s">
+        <v>616</v>
+      </c>
+      <c r="E529" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F529" t="n">
+        <v>111.57</v>
+      </c>
+      <c r="G529" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="B530" t="s">
+        <v>48</v>
+      </c>
+      <c r="C530" t="s">
+        <v>984</v>
+      </c>
+      <c r="D530" t="s">
+        <v>616</v>
+      </c>
+      <c r="E530" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F530" t="n">
+        <v>115.07</v>
+      </c>
+      <c r="G530" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="B531" t="s">
+        <v>48</v>
+      </c>
+      <c r="C531" t="s">
+        <v>986</v>
+      </c>
+      <c r="D531" t="s">
+        <v>616</v>
+      </c>
+      <c r="E531" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F531" t="n">
+        <v>118.57</v>
+      </c>
+      <c r="G531" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="B532" t="s">
+        <v>48</v>
+      </c>
+      <c r="C532" t="s">
+        <v>988</v>
+      </c>
+      <c r="D532" t="s">
+        <v>616</v>
+      </c>
+      <c r="E532" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F532" t="n">
+        <v>122.07</v>
+      </c>
+      <c r="G532" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="B533" t="s">
+        <v>48</v>
+      </c>
+      <c r="C533" t="s">
+        <v>990</v>
+      </c>
+      <c r="D533" t="s">
+        <v>619</v>
+      </c>
+      <c r="E533" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>112.07</v>
+      </c>
+      <c r="G533" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="B534" t="s">
+        <v>48</v>
+      </c>
+      <c r="C534" t="s">
+        <v>992</v>
+      </c>
+      <c r="D534" t="s">
+        <v>619</v>
+      </c>
+      <c r="E534" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F534" t="n">
+        <v>102.07</v>
+      </c>
+      <c r="G534" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534.0</v>
+      </c>
+      <c r="B535" t="s">
+        <v>48</v>
+      </c>
+      <c r="C535" t="s">
+        <v>994</v>
+      </c>
+      <c r="D535" t="s">
+        <v>616</v>
+      </c>
+      <c r="E535" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F535" t="n">
+        <v>109.07</v>
+      </c>
+      <c r="G535" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535.0</v>
+      </c>
+      <c r="B536" t="s">
+        <v>48</v>
+      </c>
+      <c r="C536" t="s">
+        <v>996</v>
+      </c>
+      <c r="D536" t="s">
+        <v>619</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F536" t="n">
+        <v>99.07</v>
+      </c>
+      <c r="G536" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536.0</v>
+      </c>
+      <c r="B537" t="s">
+        <v>48</v>
+      </c>
+      <c r="C537" t="s">
+        <v>998</v>
+      </c>
+      <c r="D537" t="s">
+        <v>619</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F537" t="n">
+        <v>89.07</v>
+      </c>
+      <c r="G537" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="B538" t="s">
+        <v>32</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D538" t="s">
+        <v>619</v>
+      </c>
+      <c r="E538" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F538" t="n">
+        <v>64.07</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="B539" t="s">
+        <v>32</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D539" t="s">
+        <v>619</v>
+      </c>
+      <c r="E539" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F539" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="B540" t="s">
+        <v>32</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D540" t="s">
+        <v>619</v>
+      </c>
+      <c r="E540" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F540" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="B541" t="s">
+        <v>35</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D541" t="s">
+        <v>619</v>
+      </c>
+      <c r="E541" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D542" t="s">
+        <v>619</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F542" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="B543" t="s">
+        <v>625</v>
+      </c>
+      <c r="C543" t="s">
+        <v>626</v>
+      </c>
+      <c r="D543" t="s">
+        <v>626</v>
+      </c>
+      <c r="E543" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F543" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="B544" t="s">
+        <v>32</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D544" t="s">
+        <v>619</v>
+      </c>
+      <c r="E544" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>78.57</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="B545" t="s">
+        <v>32</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D545" t="s">
+        <v>619</v>
+      </c>
+      <c r="E545" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F545" t="n">
+        <v>53.57</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545.0</v>
+      </c>
+      <c r="B546" t="s">
+        <v>32</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D546" t="s">
+        <v>616</v>
+      </c>
+      <c r="E546" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="F546" t="n">
+        <v>49.57</v>
+      </c>
+      <c r="G546" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546.0</v>
+      </c>
+      <c r="B547" t="s">
+        <v>32</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D547" t="s">
+        <v>619</v>
+      </c>
+      <c r="E547" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F547" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547.0</v>
+      </c>
+      <c r="B548" t="s">
+        <v>48</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D548" t="s">
+        <v>619</v>
+      </c>
+      <c r="E548" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F548" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548.0</v>
+      </c>
+      <c r="B549" t="s">
+        <v>48</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D549" t="s">
+        <v>616</v>
+      </c>
+      <c r="E549" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F549" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="B550" t="s">
+        <v>48</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D550" t="s">
+        <v>616</v>
+      </c>
+      <c r="E550" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F550" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="B551" t="s">
+        <v>32</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D551" t="s">
+        <v>619</v>
+      </c>
+      <c r="E551" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="B552" t="s">
+        <v>625</v>
+      </c>
+      <c r="C552" t="s">
+        <v>626</v>
+      </c>
+      <c r="D552" t="s">
+        <v>626</v>
+      </c>
+      <c r="E552" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F552" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552.0</v>
+      </c>
+      <c r="B553" t="s">
+        <v>32</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D553" t="s">
+        <v>616</v>
+      </c>
+      <c r="E553" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F553" t="n">
+        <v>204.57</v>
+      </c>
+      <c r="G553" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="B554" t="s">
+        <v>32</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D554" t="s">
+        <v>616</v>
+      </c>
+      <c r="E554" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="F554" t="n">
+        <v>200.57</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="B555" t="s">
+        <v>32</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D555" t="s">
+        <v>634</v>
+      </c>
+      <c r="E555" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F555" t="n">
+        <v>175.57</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="B556" t="s">
+        <v>32</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D556" t="s">
+        <v>619</v>
+      </c>
+      <c r="E556" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F556" t="n">
+        <v>150.57</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="B557" t="s">
+        <v>32</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D557" t="s">
+        <v>619</v>
+      </c>
+      <c r="E557" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F557" t="n">
+        <v>100.57</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="B558" t="s">
+        <v>32</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D558" t="s">
+        <v>619</v>
+      </c>
+      <c r="E558" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F558" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B559" t="s">
+        <v>32</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D559" t="s">
+        <v>619</v>
+      </c>
+      <c r="E559" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G559" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="B560" t="s">
+        <v>625</v>
+      </c>
+      <c r="C560" t="s">
+        <v>626</v>
+      </c>
+      <c r="D560" t="s">
+        <v>626</v>
+      </c>
+      <c r="E560" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>100.57</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="B561" t="s">
+        <v>32</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D561" t="s">
+        <v>619</v>
+      </c>
+      <c r="E561" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="G561" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="B562" t="s">
+        <v>625</v>
+      </c>
+      <c r="C562" t="s">
+        <v>626</v>
+      </c>
+      <c r="D562" t="s">
+        <v>626</v>
+      </c>
+      <c r="E562" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F562" t="n">
+        <v>150.57</v>
+      </c>
+      <c r="G562" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="B563" t="s">
+        <v>32</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D563" t="s">
+        <v>619</v>
+      </c>
+      <c r="E563" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F563" t="n">
+        <v>100.57</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563.0</v>
+      </c>
+      <c r="B564" t="s">
+        <v>32</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D564" t="s">
+        <v>619</v>
+      </c>
+      <c r="E564" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F564" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="B565" t="s">
+        <v>32</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D565" t="s">
+        <v>616</v>
+      </c>
+      <c r="E565" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F565" t="n">
+        <v>84.57</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="B566" t="s">
+        <v>48</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D566" t="s">
+        <v>616</v>
+      </c>
+      <c r="E566" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>101.57</v>
+      </c>
+      <c r="G566" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="B567" t="s">
+        <v>48</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D567" t="s">
+        <v>616</v>
+      </c>
+      <c r="E567" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>118.57</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="B568" t="s">
+        <v>48</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D568" t="s">
+        <v>619</v>
+      </c>
+      <c r="E568" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F568" t="n">
+        <v>93.57</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="B569" t="s">
+        <v>32</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D569" t="s">
+        <v>616</v>
+      </c>
+      <c r="E569" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>117.57</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="B570" t="s">
+        <v>48</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D570" t="s">
+        <v>619</v>
+      </c>
+      <c r="E570" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F570" t="n">
+        <v>67.57</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570.0</v>
+      </c>
+      <c r="B571" t="s">
+        <v>48</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D571" t="s">
+        <v>619</v>
+      </c>
+      <c r="E571" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F571" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="B572" t="s">
+        <v>625</v>
+      </c>
+      <c r="C572" t="s">
+        <v>626</v>
+      </c>
+      <c r="D572" t="s">
+        <v>626</v>
+      </c>
+      <c r="E572" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>117.57</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572.0</v>
+      </c>
+      <c r="B573" t="s">
+        <v>625</v>
+      </c>
+      <c r="C573" t="s">
+        <v>626</v>
+      </c>
+      <c r="D573" t="s">
+        <v>626</v>
+      </c>
+      <c r="E573" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>317.57</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573.0</v>
+      </c>
+      <c r="B574" t="s">
+        <v>32</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D574" t="s">
+        <v>619</v>
+      </c>
+      <c r="E574" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F574" t="n">
+        <v>217.57</v>
+      </c>
+      <c r="G574" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="B575" t="s">
+        <v>48</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D575" t="s">
+        <v>616</v>
+      </c>
+      <c r="E575" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F575" t="n">
+        <v>224.57</v>
+      </c>
+      <c r="G575" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="B576" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D576" t="s">
+        <v>619</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F576" t="n">
+        <v>222.07</v>
+      </c>
+      <c r="G576" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="B577" t="s">
+        <v>48</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D577" t="s">
+        <v>619</v>
+      </c>
+      <c r="E577" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>212.07</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="B578" t="s">
+        <v>32</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D578" t="s">
+        <v>616</v>
+      </c>
+      <c r="E578" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F578" t="n">
+        <v>352.07</v>
+      </c>
+      <c r="G578" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B579" t="s">
+        <v>668</v>
+      </c>
+      <c r="C579" t="s">
+        <v>626</v>
+      </c>
+      <c r="D579" t="s">
+        <v>626</v>
+      </c>
+      <c r="E579" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579.0</v>
+      </c>
+      <c r="B580" t="s">
+        <v>625</v>
+      </c>
+      <c r="C580" t="s">
+        <v>626</v>
+      </c>
+      <c r="D580" t="s">
+        <v>626</v>
+      </c>
+      <c r="E580" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F580" t="n">
+        <v>200.07</v>
+      </c>
+      <c r="G580" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="B581" t="s">
+        <v>32</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D581" t="s">
+        <v>619</v>
+      </c>
+      <c r="E581" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G581" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581.0</v>
+      </c>
+      <c r="B582" t="s">
+        <v>625</v>
+      </c>
+      <c r="C582" t="s">
+        <v>626</v>
+      </c>
+      <c r="D582" t="s">
+        <v>626</v>
+      </c>
+      <c r="E582" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="F582" t="n">
+        <v>400.07</v>
+      </c>
+      <c r="G582" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="B583" t="s">
+        <v>32</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D583" t="s">
+        <v>634</v>
+      </c>
+      <c r="E583" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F583" t="n">
+        <v>200.07</v>
+      </c>
+      <c r="G583" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="B584" t="s">
+        <v>32</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D584" t="s">
+        <v>619</v>
+      </c>
+      <c r="E584" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1081</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
